--- a/Data/Bot3_Config.xlsx
+++ b/Data/Bot3_Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 3\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_bot 3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3CCBC6-8292-47DC-8E3E-5113B2836816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6292FD9-B554-475F-8BB3-A96DD94BD893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,9 +200,6 @@
     <t>OutputFolderPath</t>
   </si>
   <si>
-    <t>C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 3\Data\Output\</t>
-  </si>
-  <si>
     <t>ScheduleDetailsFilepath</t>
   </si>
   <si>
@@ -337,9 +334,6 @@
 Bot</t>
   </si>
   <si>
-    <t>C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 3\Data\Input\ScheduleDetails_Bot3.xlsx</t>
-  </si>
-  <si>
     <t>RetryNumber</t>
   </si>
   <si>
@@ -448,15 +442,6 @@
     <t>00:00:10</t>
   </si>
   <si>
-    <t>Undeliverable: Bot 3 Completed for Daily</t>
-  </si>
-  <si>
-    <t>Undeliverable: Bot 3 Completed for Consolidated</t>
-  </si>
-  <si>
-    <t>Undeliverable: Bot 3 Completed for Monthly</t>
-  </si>
-  <si>
     <t>DailyName</t>
   </si>
   <si>
@@ -491,9 +476,6 @@
   </si>
   <si>
     <t>Schedule Details File Folder Name from Master file</t>
-  </si>
-  <si>
-    <t>C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Exceptions_Screenshots</t>
   </si>
   <si>
     <t>Exception Screenshot</t>
@@ -542,6 +524,24 @@
 Note: This is auto generated email by bot please don't reply to this.
 Thanks,
 Bot</t>
+  </si>
+  <si>
+    <t>C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_bot 3\Data\Output\</t>
+  </si>
+  <si>
+    <t>C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_bot 3\Data\Input\ScheduleDetails_Bot3.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_bot 3\Exceptions_Screenshots</t>
+  </si>
+  <si>
+    <t>Undeliverable: Bot 3 Completed for Daily : Approved details</t>
+  </si>
+  <si>
+    <t>Undeliverable: Bot 3 Completed for Consolidated : Approved details</t>
+  </si>
+  <si>
+    <t>Undeliverable: Bot 3 Completed for Monthly : Approved details</t>
   </si>
 </sst>
 </file>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z981"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1002,7 +1002,7 @@
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.8" customHeight="1">
@@ -1013,7 +1013,7 @@
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1024,7 +1024,7 @@
         <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1035,18 +1035,18 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1057,18 +1057,18 @@
         <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -1076,10 +1076,10 @@
         <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.8" customHeight="1">
@@ -1090,7 +1090,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="16.2" customHeight="1">
@@ -1098,282 +1098,282 @@
         <v>56</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
         <v>91</v>
-      </c>
-      <c r="B23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
         <v>93</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B29" s="2">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" t="s">
         <v>115</v>
-      </c>
-      <c r="C34" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="s">
         <v>127</v>
-      </c>
-      <c r="C35" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B39" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
@@ -1381,59 +1381,59 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C43" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3600,10 +3600,10 @@
         <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
@@ -3611,10 +3611,10 @@
         <v>50</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Bot3_Config.xlsx
+++ b/Data/Bot3_Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_bot 3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6292FD9-B554-475F-8BB3-A96DD94BD893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7650E83F-1E99-4F19-834F-1DF586E33ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="178">
   <si>
     <t>Name</t>
   </si>
@@ -485,9 +485,6 @@
   </si>
   <si>
     <t>ExceptionBody</t>
-  </si>
-  <si>
-    <t>Exception: DO and Invoice Process Automation bot 3  @TodaysDate</t>
   </si>
   <si>
     <t>StatusSuccessMessage</t>
@@ -542,6 +539,62 @@
   </si>
   <si>
     <t>Undeliverable: Bot 3 Completed for Monthly : Approved details</t>
+  </si>
+  <si>
+    <t>ReportBodyConsolidated</t>
+  </si>
+  <si>
+    <t>ReportSubjectConsolidated</t>
+  </si>
+  <si>
+    <t>ReportSubjectMonthly</t>
+  </si>
+  <si>
+    <t>ReportBodyMonthly</t>
+  </si>
+  <si>
+    <t>Hello Receiver, 
+         Bot 3 completed Consolidated Process for today. Status Report is attached with this Email. 
+Note: This is auto generated email by bot please don't reply to this.
+Thanks,
+Bot</t>
+  </si>
+  <si>
+    <t>Hello Receiver, 
+         Bot 3 completed Monthly Process for today. Status Report is attached with this Email. 
+Note: This is auto generated email by bot please don't reply to this.
+Thanks,
+Bot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consolidated: Final Report for DO and Invoice Process Automation bot 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly: Final Report for DO and Invoice Process Automation bot 3 </t>
+  </si>
+  <si>
+    <t>BusinessExceptionFileNotFound</t>
+  </si>
+  <si>
+    <t>Merged File is missing to send the email</t>
+  </si>
+  <si>
+    <t>Report Body text Consolidated</t>
+  </si>
+  <si>
+    <t>Report Subject text Consolidated</t>
+  </si>
+  <si>
+    <t>Report Body text Monthly</t>
+  </si>
+  <si>
+    <t>Report Subject text Monthly</t>
+  </si>
+  <si>
+    <t>Exception subject for missing merged file</t>
+  </si>
+  <si>
+    <t>Exception: DO and Invoice Process Automation bot 3 @TodaysDate</t>
   </si>
 </sst>
 </file>
@@ -933,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z981"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1005,7 +1058,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="13.8" customHeight="1">
+    <row r="6" spans="1:26" ht="13.95" customHeight="1">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1082,7 +1135,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="13.8" customHeight="1">
+    <row r="13" spans="1:26" ht="13.95" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
@@ -1098,7 +1151,7 @@
         <v>56</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
         <v>86</v>
@@ -1109,7 +1162,7 @@
         <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
@@ -1227,7 +1280,7 @@
         <v>100</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
         <v>99</v>
@@ -1238,7 +1291,7 @@
         <v>101</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C27" t="s">
         <v>117</v>
@@ -1249,7 +1302,7 @@
         <v>102</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
         <v>118</v>
@@ -1381,7 +1434,7 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
         <v>143</v>
@@ -1392,7 +1445,7 @@
         <v>144</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
@@ -1400,61 +1453,111 @@
         <v>145</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" t="s">
         <v>148</v>
-      </c>
-      <c r="C43" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" t="s">
         <v>150</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>151</v>
-      </c>
-      <c r="C44" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" t="s">
         <v>153</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>154</v>
       </c>
-      <c r="C45" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
+    </row>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A47" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A49" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A50" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="52" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="53" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="54" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="55" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="56" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="57" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="58" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="59" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="60" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="61" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="62" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="63" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="64" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>

--- a/Data/Bot3_Config.xlsx
+++ b/Data/Bot3_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_bot 3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7650E83F-1E99-4F19-834F-1DF586E33ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E938E9-3026-499C-A9D7-0626B934CAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,12 +337,6 @@
     <t>RetryNumber</t>
   </si>
   <si>
-    <t>CCEmailIDs</t>
-  </si>
-  <si>
-    <t>BusinessEmailIDs</t>
-  </si>
-  <si>
     <t xml:space="preserve">DO and Invoice Process Automation bot 3 Started Run for </t>
   </si>
   <si>
@@ -526,9 +520,6 @@
     <t>C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_bot 3\Data\Output\</t>
   </si>
   <si>
-    <t>C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_bot 3\Data\Input\ScheduleDetails_Bot3.xlsx</t>
-  </si>
-  <si>
     <t>C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_bot 3\Exceptions_Screenshots</t>
   </si>
   <si>
@@ -595,6 +586,15 @@
   </si>
   <si>
     <t>Exception: DO and Invoice Process Automation bot 3 @TodaysDate</t>
+  </si>
+  <si>
+    <t>artee.natu@innowise.us</t>
+  </si>
+  <si>
+    <t>invoicing@huphin.com.sg</t>
+  </si>
+  <si>
+    <t>M:\2. Sales Department\Unipath\Schedule Detail Files\ScheduleDetails_Bot3.xlsx</t>
   </si>
 </sst>
 </file>
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z981"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1121,7 +1121,7 @@
         <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -1151,7 +1151,7 @@
         <v>56</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
         <v>86</v>
@@ -1162,7 +1162,7 @@
         <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
@@ -1173,7 +1173,7 @@
         <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
@@ -1184,7 +1184,7 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
@@ -1228,7 +1228,7 @@
         <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
@@ -1239,7 +1239,7 @@
         <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
@@ -1247,7 +1247,7 @@
         <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
         <v>91</v>
@@ -1272,161 +1272,161 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B29" s="2">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
         <v>113</v>
-      </c>
-      <c r="C34" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" t="s">
         <v>125</v>
-      </c>
-      <c r="C35" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" t="s">
         <v>131</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" t="s">
         <v>134</v>
-      </c>
-      <c r="B37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
         <v>137</v>
-      </c>
-      <c r="B38" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" t="s">
         <v>140</v>
-      </c>
-      <c r="B39" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
@@ -1434,118 +1434,138 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B41" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" t="s">
         <v>146</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" t="s">
         <v>149</v>
-      </c>
-      <c r="B44" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" t="s">
         <v>152</v>
-      </c>
-      <c r="B45" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C48" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B50" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C50" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="52" spans="1:3" ht="14.25" customHeight="1"/>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="54" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="55" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2477,8 +2497,11 @@
     <row r="981" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B52" r:id="rId1" xr:uid="{F5D6447A-0AFC-4FCB-854A-2778FCD9DF42}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3651,7 +3674,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3698,27 +3721,10 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
